--- a/variables_per_paradigm.xlsx
+++ b/variables_per_paradigm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\data2.einsteinmed.edu\home\cnl-interns-lab\Interns\darrellm\EEG Processing\SFARI\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CBBEF6-319D-4492-8BEF-CB2B39F578A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79239DFC-26D6-4CED-A0F3-C1DA67391B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3B62613D-53D7-42FA-8FAA-AF05C7A68B01}"/>
+    <workbookView xWindow="2916" yWindow="288" windowWidth="17304" windowHeight="8892" xr2:uid="{3B62613D-53D7-42FA-8FAA-AF05C7A68B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>step</t>
   </si>
@@ -234,6 +234,24 @@
   </si>
   <si>
     <t>baseline_end</t>
+  </si>
+  <si>
+    <t>ICA_eye</t>
+  </si>
+  <si>
+    <t>ICA_brain</t>
+  </si>
+  <si>
+    <t>extr_low_pass_filter_cond1</t>
+  </si>
+  <si>
+    <t>extr_high_pass_filter_cond2</t>
+  </si>
+  <si>
+    <t>extr_low_pass_filter_cond2</t>
+  </si>
+  <si>
+    <t>extr_high_pass_filter_cond1</t>
   </si>
 </sst>
 </file>
@@ -606,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561228E3-6232-4A06-A875-04A731B64C09}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,6 +1216,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
